--- a/UML2XLS1_test.xlsx
+++ b/UML2XLS1_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\CONVERTER\XMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{218EBBCC-94E3-4372-867E-D8D002E3F54A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95647D56-559C-4A2F-8BCF-C283C19C23EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XMI Structure" sheetId="32" r:id="rId1"/>
@@ -23,15 +23,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1083,10 +1074,6 @@
     <t>The religion that a party believes in</t>
   </si>
   <si>
-    <t xml:space="preserve">An agreement between bank and customer/client which regulates arrangements, terms and conditions for daily banking transactions as offered as services in the current account product. 
-</t>
-  </si>
-  <si>
     <t>A set of characteristics that allows to refer to a unique distinct instance of a CurrentAccountAgreement</t>
   </si>
   <si>
@@ -1130,9 +1117,6 @@
     <t>isType=40d825db-445e-eb11-8547-9061ae370d29</t>
   </si>
   <si>
-    <t>structure/make-up of an organizational entity</t>
-  </si>
-  <si>
     <t>Reference to identify uniquely and instance of an organization</t>
   </si>
   <si>
@@ -1338,6 +1322,13 @@
   </si>
   <si>
     <t>BIAN Service Landscape v9.0 -- Service Domain BOM Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An agreement between bank and customer client which regulates arrangements, terms and conditions for daily banking transactions as offered as services in the current account product. 
+</t>
+  </si>
+  <si>
+    <t>structure make-up of an organizational entity</t>
   </si>
 </sst>
 </file>
@@ -6362,8 +6353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D7D87F-2FD9-46DA-91D8-7C60C114DFD1}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6886,7 +6877,7 @@
         <v>118</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>346</v>
+        <v>429</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>314</v>
@@ -6930,7 +6921,7 @@
         <v>124</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>314</v>
@@ -6951,10 +6942,10 @@
         <v>326</v>
       </c>
       <c r="M13" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>329</v>
@@ -6986,7 +6977,7 @@
         <v>122</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>314</v>
@@ -7042,7 +7033,7 @@
         <v>120</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>314</v>
@@ -7063,10 +7054,10 @@
         <v>326</v>
       </c>
       <c r="M15" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>329</v>
@@ -7094,7 +7085,7 @@
       <c r="D16" s="15"/>
       <c r="E16" s="28"/>
       <c r="F16" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>314</v>
@@ -7138,7 +7129,7 @@
         <v>193</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>314</v>
@@ -7159,10 +7150,10 @@
         <v>326</v>
       </c>
       <c r="M17" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>357</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>329</v>
@@ -7194,7 +7185,7 @@
         <v>191</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>314</v>
@@ -7215,10 +7206,10 @@
         <v>326</v>
       </c>
       <c r="M18" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="N18" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>360</v>
       </c>
       <c r="O18" s="15" t="s">
         <v>329</v>
@@ -7246,7 +7237,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="28"/>
       <c r="F19" s="15" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>314</v>
@@ -7290,7 +7281,7 @@
         <v>179</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>314</v>
@@ -7311,10 +7302,10 @@
         <v>326</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O20" s="15" t="s">
         <v>329</v>
@@ -7346,7 +7337,7 @@
         <v>177</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>314</v>
@@ -7398,7 +7389,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="28"/>
       <c r="F22" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>314</v>
@@ -7442,7 +7433,7 @@
         <v>169</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>314</v>
@@ -7463,10 +7454,10 @@
         <v>326</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O23" s="15" t="s">
         <v>329</v>
@@ -7552,7 +7543,7 @@
         <v>171</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>314</v>
@@ -7608,7 +7599,7 @@
         <v>173</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>314</v>
@@ -7629,10 +7620,10 @@
         <v>326</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>329</v>
@@ -7660,7 +7651,7 @@
       <c r="D27" s="15"/>
       <c r="E27" s="28"/>
       <c r="F27" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>314</v>
@@ -7700,7 +7691,7 @@
         <v>151</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -7732,7 +7723,7 @@
         <v>149</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -7760,7 +7751,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="28"/>
       <c r="F30" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>314</v>
@@ -7954,7 +7945,7 @@
         <v>226</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -7986,7 +7977,7 @@
         <v>228</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -8018,7 +8009,7 @@
         <v>230</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -8076,7 +8067,7 @@
       <c r="D40" s="15"/>
       <c r="E40" s="28"/>
       <c r="F40" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>314</v>
@@ -8240,7 +8231,7 @@
         <v>264</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -8272,7 +8263,7 @@
         <v>266</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -8304,7 +8295,7 @@
         <v>268</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -8336,7 +8327,7 @@
         <v>270</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -8368,7 +8359,7 @@
         <v>272</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -8434,7 +8425,7 @@
         <v>275</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -8466,7 +8457,7 @@
         <v>277</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -8724,7 +8715,7 @@
       <c r="D60" s="15"/>
       <c r="E60" s="28"/>
       <c r="F60" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>314</v>
@@ -8760,7 +8751,7 @@
       <c r="D61" s="15"/>
       <c r="E61" s="28"/>
       <c r="F61" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>314</v>
@@ -8932,7 +8923,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="28"/>
       <c r="F66" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>314</v>
@@ -9234,7 +9225,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -9365,7 +9356,7 @@
         <v>307</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>284</v>
@@ -9374,31 +9365,31 @@
         <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>325</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>295</v>
@@ -9407,31 +9398,31 @@
         <v>189</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>325</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
@@ -9439,7 +9430,7 @@
         <v>309</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>284</v>
@@ -9448,31 +9439,31 @@
         <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>325</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>301</v>
@@ -9481,31 +9472,31 @@
         <v>167</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>325</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="U5" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
@@ -9513,7 +9504,7 @@
         <v>311</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>291</v>
@@ -9522,31 +9513,31 @@
         <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>325</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>301</v>
@@ -9555,31 +9546,31 @@
         <v>167</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>325</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="U6" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -9626,7 +9617,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -9681,13 +9672,13 @@
         <v>118</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>412</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -9705,13 +9696,13 @@
         <v>126</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -9728,13 +9719,13 @@
         <v>132</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -9751,13 +9742,13 @@
         <v>146</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -9774,13 +9765,13 @@
         <v>155</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -9797,13 +9788,13 @@
         <v>167</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -9820,13 +9811,13 @@
         <v>175</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>423</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -9843,13 +9834,13 @@
         <v>132</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -9866,13 +9857,13 @@
         <v>189</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -9896,7 +9887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC94EEE1-2FCD-4195-B0F7-FECADA07AE65}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
@@ -9912,7 +9903,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
